--- a/biology/Zoologie/Petit_Garrot/Petit_Garrot.xlsx
+++ b/biology/Zoologie/Petit_Garrot/Petit_Garrot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bucephala albeola
 Le Petit Garrot (Bucephala albeola) ou Garrot albéole, est une espèce néarctique d'oiseaux appartenant à la famille des Anatidés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure environ 30cm de long pour une envergure d'environ 40cm. Il pèse de 270g à 400g.
 			femelle
@@ -545,7 +559,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un habitat d'eau douce, il se nourrit principalement d'insectes. Au bord de la mer, il se nourrit principalement de crustacés et de mollusques. Il se nourrit aussi de plantes aquatiques et d'œufs de poisson.
 </t>
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont monogames et les femelles retournent sur le même lieu de reproduction chaque année. La femelle pond 9 œufs  qu'elle couve pendant 28 à 35 jours. Quand elle quitte son nid pour aller chercher la nourriture, la femelle recouvre les œufs de plumes. Les cannetons atteignent la majorité sexuelle à 2 ans. L'espérance de vie est de 14 ans.
 Les petits garrots utilisent des nids construits par d'autres espèces. Ce sont des nids avec une entrée d'environ 7 cm de diamètre et une cavité de 12 à 20 cm de diamètre. Les plus grandes cavités sont évitées car elles sont convoitées par les garrots à œil d'or qui tueraient les poussins petits garrots.
@@ -608,7 +626,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les adultes peuvent être les proies du faucon pèlerin, du harfang des neiges, du pygargue à tête blanche, de l'aigle royal, de la buse à queue rousse, du grand-duc d'Amérique, du hibou grand-duc et de l'épervier de Cooper.</t>
@@ -639,7 +659,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Garrot albéole peuple l'Amérique du Nord.
 </t>
